--- a/Base di Conoscenza AI (3).xlsx
+++ b/Base di Conoscenza AI (3).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="288">
   <si>
     <t>Categoria</t>
   </si>
@@ -789,10 +789,10 @@
     <t>Sabato 30/05/2026 - Orari: 8:30-17:30. Appuntamento presso la fermata metro Ottaviano</t>
   </si>
   <si>
-    <t>Informazioni pellegrinaggio Santiago</t>
-  </si>
-  <si>
-    <t>Dal 25/06/ al 02/07 2026. Da Tui a Santiago in 6 tappe.</t>
+    <t>Visita mostra su Salvador Dalì</t>
+  </si>
+  <si>
+    <t>Sabato 15 novembre, alle ore 11. Visita guidata. Posti limitati. Per partecipare è necessario inviare una messaggio di posta elettronica alla segreteria.</t>
   </si>
   <si>
     <t>Raccolta alimentare</t>
@@ -861,10 +861,44 @@
     <t xml:space="preserve">Sabato 13 e domenica 14 - sabato 20 e domenica 21 dicembre. Dalle ore 10.30/13.30 e dalle 17/20. Vendita di oggettistica e gastronomia a beneficio degli assistiti. L'esposizione si terrà nei locali parrocchiali </t>
   </si>
   <si>
-    <t>Corsi di danza</t>
+    <t>Corso di danza</t>
   </si>
   <si>
     <t>Per bambine dai 5 anni e ragazze dagli 11 anni fino ai 15. Inizio giovedì 23 ottobre 2025, ore 16.30</t>
+  </si>
+  <si>
+    <t>Pellegrinaggio a Santiago: informazioni generali</t>
+  </si>
+  <si>
+    <t>Dal 27/06/ al 04/07 2026. Da Tui a Santiago in 6 tappe. Le principali informazioni (costi, date ecc.) si possono trovare nella pagina web della parrocchia: tinyurl.com/cammino26</t>
+  </si>
+  <si>
+    <t>Pellegrinaggio a Santiago: sistemazioni</t>
+  </si>
+  <si>
+    <t>Si può scegliere tra due tipi di alloggio:
+Albergo: camere singole, doppie o triple. Tutto il necessario per dormire e asciugarsi è fornito dalla struttura.
+Ostello: sistemazione in camere condivise (multiple). È necessario portare sacco a pelo oppure lenzuola e coperta, oltre all’occorrente per l’igiene personale.
+Il costo varia in base alla tipologia selezionata.
+La prenotazione dell’alloggio non include i pasti.
+Costi delle sistemazioni:
+Ostello 250€
+Albergo singola 640€
+Albergo doppia 475€
+Albergo tripla 460€
+Supplemento colazioni 70€</t>
+  </si>
+  <si>
+    <t>Pellegrinaggio a Santiago: viaggio</t>
+  </si>
+  <si>
+    <t>Proporremo un programma comune di giaggio a gennaio, quando le compagnie aeree avvranno definito la loro programmazione. Provvederemo anche ad organizzare il trasferimento in pullmann dall'aeroporto (presumibilmente diPorto) e Tui.</t>
+  </si>
+  <si>
+    <t>Pellegrinaggio a Santiago: come iscriversi</t>
+  </si>
+  <si>
+    <t>tinyurl.com/santiago26</t>
   </si>
   <si>
     <t>Vietata</t>
@@ -1072,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1124,6 +1158,9 @@
     </xf>
     <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -5212,10 +5249,10 @@
       <c r="A111" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="10" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5297,24 +5334,71 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+      <c r="A119" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
+      <c r="A120" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
+      <c r="A121" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="6"/>
@@ -9535,11 +9619,12 @@
     <hyperlink r:id="rId10" ref="C108"/>
     <hyperlink r:id="rId11" ref="C113"/>
     <hyperlink r:id="rId12" ref="C115"/>
+    <hyperlink r:id="rId13" ref="C122"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -9558,67 +9643,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>262</v>
+      <c r="A2" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>264</v>
+      <c r="A3" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>266</v>
+      <c r="A4" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>268</v>
+      <c r="A5" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -9642,13 +9727,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="23">
+      <c r="B1" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="24">
         <f>LET(
   dataRiferimento, DATE(YEAR(TODAY()), 9, 15),
   giornoSettimanaRif, WEEKDAY(dataRiferimento, 2),
@@ -9662,13 +9747,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="27">
         <f>LET(
   annoCorrente, YEAR(TODAY()),
   dataCambio, DATE(annoCorrente,7,1),
@@ -9701,11 +9786,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>271</v>
+      <c r="B3" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="C3" s="6" t="str">
         <f>LET(
@@ -9760,11 +9845,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>272</v>
+      <c r="B4" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>LET(
@@ -9820,11 +9905,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>273</v>
+      <c r="B5" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>LET(
@@ -9877,7 +9962,7 @@
         <v>24 maggio 2026 - Ore 20.30 presso l'Auletta rossa dell'Icef. Entrata dal cortile</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -9902,13 +9987,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -9919,7 +10004,7 @@
         <v>231</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
@@ -9930,7 +10015,7 @@
         <v>231</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -9941,7 +10026,7 @@
         <v>231</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Base di Conoscenza AI (3).xlsx
+++ b/Base di Conoscenza AI (3).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="290">
   <si>
     <t>Categoria</t>
   </si>
@@ -792,7 +792,7 @@
     <t>Visita mostra su Salvador Dalì</t>
   </si>
   <si>
-    <t>Sabato 15 novembre, alle ore 11. Visita guidata. Posti limitati. Per partecipare è necessario inviare una messaggio di posta elettronica alla segreteria.</t>
+    <t>Sabato 15 novembre, alle ore 11. Visita guidata. Posti limitati. Per partecipare è necessario inviare una messaggio di posta elettronica alla segreteria. Purtroppo i posti disponibili si sono già esauriti.</t>
   </si>
   <si>
     <t>Raccolta alimentare</t>
@@ -892,13 +892,19 @@
     <t>Pellegrinaggio a Santiago: viaggio</t>
   </si>
   <si>
-    <t>Proporremo un programma comune di giaggio a gennaio, quando le compagnie aeree avvranno definito la loro programmazione. Provvederemo anche ad organizzare il trasferimento in pullmann dall'aeroporto (presumibilmente diPorto) e Tui.</t>
+    <t>Proporremo un programma comune di viaggio a gennaio, quando le compagnie aeree avvranno definito la loro programmazione. Provvederemo anche ad organizzare il trasferimento in pullmann dall'aeroporto (presumibilmente di Porto) a Tui.</t>
   </si>
   <si>
     <t>Pellegrinaggio a Santiago: come iscriversi</t>
   </si>
   <si>
     <t>tinyurl.com/santiago26</t>
+  </si>
+  <si>
+    <t>Piergiorgio Frassati - Il miracolo della canonizzazione</t>
+  </si>
+  <si>
+    <t>11 novembre 2025 - ore 20.00 - Incontro con Padre Juan Manuel Gutierrez protagonista del miracolo. Per info: info@parrocchiasanteugenio.it  Ingresso dal cortile</t>
   </si>
   <si>
     <t>Vietata</t>
@@ -5401,9 +5407,15 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
+      <c r="A123" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="17"/>
@@ -9644,10 +9656,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -9676,34 +9688,34 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -9731,7 +9743,7 @@
         <v>113</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C1" s="24">
         <f>LET(
@@ -9751,7 +9763,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C2" s="27">
         <f>LET(
@@ -9790,7 +9802,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6" t="str">
         <f>LET(
@@ -9849,7 +9861,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>LET(
@@ -9909,7 +9921,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>LET(
@@ -9987,13 +9999,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -10004,7 +10016,7 @@
         <v>231</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9">
@@ -10015,7 +10027,7 @@
         <v>231</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -10026,7 +10038,7 @@
         <v>231</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
